--- a/P06/Scrum.xlsx
+++ b/P06/Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd37a0185c9f61f3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3F39B-4DEB-497C-A238-5AA33CFE6954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F460B282-4436-474F-B03C-6926236434BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B5B0C20-7FFB-4985-ADDB-85E08EAF6F79}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="155">
   <si>
     <t>Product Name:</t>
   </si>
@@ -489,6 +489,24 @@
   </si>
   <si>
     <t>add Order java</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>Completed Day 1</t>
+  </si>
+  <si>
+    <t>P05 files to mMain win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created enum file for list </t>
+  </si>
+  <si>
+    <t>add menu structure for MainWin</t>
+  </si>
+  <si>
+    <t>add set if Listeners in Main Win</t>
   </si>
 </sst>
 </file>
@@ -643,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -753,6 +771,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -990,19 +1011,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,7 +1622,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3078,16 +3099,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1969560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>43626</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1905480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:colOff>3014986</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78371</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3663,8 +3684,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3687,14 +3708,14 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
         <v>1</v>
@@ -3705,14 +3726,14 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -3751,64 +3772,66 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="41">
+        <v>1001795919</v>
+      </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
@@ -3872,11 +3895,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3896,7 +3919,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3920,7 +3943,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3944,7 +3967,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3964,7 +3987,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4036,10 +4059,10 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="42"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
         <v>19</v>
@@ -4131,7 +4154,9 @@
       <c r="F25" s="17">
         <v>1</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
       </c>
@@ -4162,7 +4187,9 @@
       <c r="F26" s="17">
         <v>1</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
       </c>
@@ -4188,8 +4215,12 @@
       <c r="E27" s="16">
         <v>8</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="H27" s="18" t="s">
         <v>31</v>
       </c>
@@ -4215,8 +4246,12 @@
       <c r="E28" s="16">
         <v>13</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
       </c>
@@ -4242,8 +4277,12 @@
       <c r="E29" s="21">
         <v>21</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="F29" s="17">
+        <v>2</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="H29" s="18" t="s">
         <v>31</v>
       </c>
@@ -5411,7 +5450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -5546,7 +5585,7 @@
         <v>123</v>
       </c>
       <c r="B9" s="25">
-        <f t="shared" ref="B8:B14" si="0">B8-C9</f>
+        <f t="shared" ref="B9:B14" si="0">B8-C9</f>
         <v>2</v>
       </c>
       <c r="C9" s="25">
@@ -6612,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="94" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6718,7 +6757,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6737,7 +6776,7 @@
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -6887,49 +6926,73 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="37"/>
+        <v>151</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>140</v>
+      </c>
       <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="39"/>
       <c r="E21" s="37"/>

--- a/P06/Scrum.xlsx
+++ b/P06/Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd37a0185c9f61f3/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd37a0185c9f61f3/Desktop/vmshare/alg3318/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F460B282-4436-474F-B03C-6926236434BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B5B0C20-7FFB-4985-ADDB-85E08EAF6F79}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0FCC484E-74D9-444E-AC2F-01DDADAC8897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F6C2FDA-273D-4C07-A17A-103A4EF807F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="167">
   <si>
     <t>Product Name:</t>
   </si>
@@ -194,7 +194,7 @@
     <t>WIN</t>
   </si>
   <si>
-    <t>Add a GUI main window with menubar and tool bar</t>
+    <t>Add a GUI main window with menubar</t>
   </si>
   <si>
     <t>Use it more easily</t>
@@ -203,10 +203,10 @@
     <t>Recommend baselining Nim from Lecture 12</t>
   </si>
   <si>
-    <t>INDIA</t>
-  </si>
-  <si>
-    <t>Collect data via a sequence of dialogs</t>
+    <t>INSCU</t>
+  </si>
+  <si>
+    <t>Insert new Customers via a sequence of dialogs</t>
   </si>
   <si>
     <t>Do everything within the GUI</t>
@@ -215,10 +215,22 @@
     <t xml:space="preserve">Recommend JOptionDialog from Lecture 13 </t>
   </si>
   <si>
-    <t>OUTM</t>
-  </si>
-  <si>
-    <t>List data (customers, options, computers, and orders separately) in the main window</t>
+    <t>INSOP</t>
+  </si>
+  <si>
+    <t>Insert new Options via a sequence of dialogs</t>
+  </si>
+  <si>
+    <t>INSCO</t>
+  </si>
+  <si>
+    <t>Insert new Computers via a sequence of dialogs</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>List data (customers, options, and computers separately) in the main window display</t>
   </si>
   <si>
     <t>Access the data directly in the window</t>
@@ -227,16 +239,40 @@
     <t xml:space="preserve">You’ll need a View menu for this, and perhaps a JLabel in the main window center section </t>
   </si>
   <si>
+    <t>TOOLB</t>
+  </si>
+  <si>
+    <t>Add a simple toolbar to the main window</t>
+  </si>
+  <si>
+    <t>Use the app with pushbutton convenience</t>
+  </si>
+  <si>
+    <t>Part of the Nim baseline. Create your own icons or find some online.</t>
+  </si>
+  <si>
     <t>ABOUT</t>
   </si>
   <si>
     <t>Director</t>
   </si>
   <si>
-    <t>Provide About dialog with sketch for aesthetics and documenting licenses</t>
-  </si>
-  <si>
-    <t>Impress users and avoid a lawsuit</t>
+    <t>(If needed) Provide a simple text-only About dialog</t>
+  </si>
+  <si>
+    <t>Avolid a lawsuit</t>
+  </si>
+  <si>
+    <t>(If needed) Rewrite the text from Nim's implementation to comply with toolbar icon license obligations</t>
+  </si>
+  <si>
+    <t>ABOSK</t>
+  </si>
+  <si>
+    <t>Provide About dialog with sketch as or around a bitmap logo for aesthetics and documenting licenses</t>
+  </si>
+  <si>
+    <t>Impress users</t>
   </si>
   <si>
     <t>Recommend a subclass of JPanel from Lecture 15 with a simple diagram plus Jlabels in one or more JPanels with program information</t>
@@ -299,6 +335,21 @@
     <t>Use inheritance with polymorphism</t>
   </si>
   <si>
+    <t>INSOR</t>
+  </si>
+  <si>
+    <t>DISP2</t>
+  </si>
+  <si>
+    <t>List ORDERS in the main window display</t>
+  </si>
+  <si>
+    <t>Access the order data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a minor change </t>
+  </si>
+  <si>
     <t>DCUST</t>
   </si>
   <si>
@@ -326,7 +377,7 @@
     <t>Keep the database clean</t>
   </si>
   <si>
-    <t>Recommend a Set with hashCode implementations</t>
+    <t>Require a Set or Map with hashCode implementations</t>
   </si>
   <si>
     <t>BONUS WORK – COMPLETE ABOVE FEATURES FIRST!!!</t>
@@ -452,61 +503,46 @@
     <t>NOTE: This sprint is entirely OPTIONAL – no points will be lost if you ignore it</t>
   </si>
   <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>Exceptional Laptops and Supercomputers Always (ELSA)</t>
+  </si>
+  <si>
     <t>Thomas Valenciana</t>
   </si>
   <si>
     <t>TV</t>
   </si>
   <si>
-    <t>Exceptional Laptops and Supercomputers Always (ELSA)</t>
-  </si>
-  <si>
-    <t>Evolve</t>
-  </si>
-  <si>
     <t>In Work</t>
   </si>
   <si>
-    <t>write Customer class</t>
-  </si>
-  <si>
-    <t>copy builld.xml into repo and test compile Customer</t>
-  </si>
-  <si>
-    <t>write TestCustomer regression test</t>
-  </si>
-  <si>
-    <t>add Customer.java and build.xml to GITHUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add Option.java </t>
-  </si>
-  <si>
-    <t>add Computer.java</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>add Order java</t>
-  </si>
-  <si>
-    <t>Finished in Sprint 1</t>
+    <t>P05 files to mMain win</t>
   </si>
   <si>
     <t>Completed Day 1</t>
   </si>
   <si>
-    <t>P05 files to mMain win</t>
-  </si>
-  <si>
     <t xml:space="preserve">created enum file for list </t>
   </si>
   <si>
     <t>add menu structure for MainWin</t>
   </si>
   <si>
-    <t>add set if Listeners in Main Win</t>
+    <t xml:space="preserve"> display content</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create toolbar</t>
+  </si>
+  <si>
+    <t>create buttons</t>
+  </si>
+  <si>
+    <t>create JFrame file</t>
   </si>
 </sst>
 </file>
@@ -584,7 +620,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +643,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FFB3B3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -661,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -771,6 +813,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -916,8 +964,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2224304904717299E-2"/>
-          <c:y val="0.16193467336683401"/>
+          <c:x val="9.3890056884359627E-2"/>
+          <c:y val="0.25235219467567993"/>
           <c:w val="0.88434864104967204"/>
           <c:h val="0.63567839195979903"/>
         </c:manualLayout>
@@ -1008,22 +1056,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,28 +1356,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,28 +1670,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,7 +1906,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2007,7 +2055,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2081,7 +2129,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -2172,7 +2220,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2321,7 +2369,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2395,7 +2443,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -2486,7 +2534,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2635,7 +2683,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2709,7 +2757,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -2800,7 +2848,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2949,7 +2997,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -3023,7 +3071,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3100,15 +3148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>43626</xdr:colOff>
+      <xdr:colOff>24423</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>77841</xdr:rowOff>
+      <xdr:rowOff>205190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>3014986</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>78371</xdr:rowOff>
+      <xdr:colOff>2235191</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46971</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3682,10 +3730,10 @@
   <sheetPr>
     <tabColor rgb="FF99FF66"/>
   </sheetPr>
-  <dimension ref="A1:AMJ94"/>
+  <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A13" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3708,14 +3756,14 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6" t="s">
         <v>1</v>
@@ -3726,14 +3774,14 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -3772,66 +3820,66 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="B5" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="41">
+        <v>157</v>
+      </c>
+      <c r="I5" s="43">
         <v>1001795919</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
@@ -3873,8 +3921,8 @@
         <v>0</v>
       </c>
       <c r="B12" s="5">
-        <f>COUNT(B24:B126)</f>
-        <v>17</v>
+        <f>COUNT(B24:B132)</f>
+        <v>23</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3895,10 +3943,10 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9">
-        <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
+        <f>COUNTIF(G$25:G$106,"Finished in Sprint 1")</f>
         <v>4</v>
       </c>
       <c r="D13" s="9"/>
@@ -3919,10 +3967,10 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9">
-        <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
+        <f>COUNTIF(G$25:G$106,"Finished in Sprint 2")</f>
         <v>0</v>
       </c>
       <c r="D14" s="9"/>
@@ -3943,10 +3991,10 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9">
-        <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
+        <f>COUNTIF(G$25:G$106,"Finished in Sprint 3")</f>
         <v>0</v>
       </c>
       <c r="D15" s="9"/>
@@ -3967,10 +4015,10 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9">
-        <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
+        <f>COUNTIF(G$25:G$106,"Finished in Sprint 4")</f>
         <v>0</v>
       </c>
       <c r="D16" s="9"/>
@@ -3987,10 +4035,10 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9">
-        <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
+        <f>COUNTIF(G$25:G$106,"Finished in Sprint 4")</f>
         <v>0</v>
       </c>
       <c r="D17" s="9"/>
@@ -4059,10 +4107,10 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="43"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
         <v>19</v>
@@ -4121,9 +4169,6 @@
       <c r="F24" s="17">
         <v>1</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>140</v>
-      </c>
       <c r="H24" s="18" t="s">
         <v>31</v>
       </c>
@@ -4155,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
@@ -4188,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
@@ -4219,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>31</v>
@@ -4250,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
@@ -4267,7 +4312,7 @@
       <c r="A29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="42">
         <v>6</v>
       </c>
       <c r="C29" s="21">
@@ -4275,13 +4320,13 @@
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F29" s="17">
         <v>2</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>31</v>
@@ -4300,7 +4345,7 @@
       <c r="A30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="42">
         <v>7</v>
       </c>
       <c r="C30" s="21">
@@ -4308,14 +4353,14 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="38" t="s">
         <v>54</v>
       </c>
       <c r="J30" t="s">
@@ -4325,11 +4370,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="42">
         <v>8</v>
       </c>
       <c r="C31" s="21">
@@ -4337,142 +4382,138 @@
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="16">
+      <c r="B32" s="42">
         <v>9</v>
       </c>
-      <c r="C32" s="16">
-        <v>3</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16">
+      <c r="C32" s="21">
+        <v>2</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21">
         <v>5</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="16">
+        <v>31</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="42">
         <v>10</v>
       </c>
-      <c r="C33" s="16">
-        <v>3</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16">
-        <v>13</v>
+      <c r="C33" s="21">
+        <v>2</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21">
+        <v>5</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="18" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="42">
         <v>11</v>
       </c>
-      <c r="C34" s="16">
-        <v>3</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16">
-        <v>1</v>
+      <c r="C34" s="21">
+        <v>2</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21">
+        <v>8</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="16">
+      <c r="K34" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="42">
         <v>12</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="42">
         <v>3</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16">
-        <v>5</v>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42">
+        <v>2</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B36" s="16">
         <v>13</v>
@@ -4482,296 +4523,332 @@
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="21">
+    <row r="37" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="16">
         <v>14</v>
       </c>
-      <c r="C37" s="21">
-        <v>4</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21">
+      <c r="C37" s="16">
+        <v>3</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16">
         <v>13</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="K37" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J37" s="19" t="s">
+    </row>
+    <row r="38" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K37" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="21">
+      <c r="B38" s="16">
         <v>15</v>
       </c>
-      <c r="C38" s="21">
-        <v>4</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21">
-        <v>8</v>
+      <c r="C38" s="16">
+        <v>3</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16">
+        <v>1</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="18" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I38" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J38" s="19" t="s">
+    </row>
+    <row r="39" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="21">
+      <c r="B39" s="16">
         <v>16</v>
       </c>
-      <c r="C39" s="21">
-        <v>4</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21">
-        <v>8</v>
+      <c r="C39" s="16">
+        <v>3</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16">
+        <v>5</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
+      <c r="H39" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="K39" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="16">
         <v>17</v>
       </c>
       <c r="C40" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="18" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I40" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J40" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="B41" s="42">
+        <v>18</v>
+      </c>
+      <c r="C41" s="21">
+        <v>4</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21">
+        <v>13</v>
+      </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-    </row>
-    <row r="42" spans="1:11" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="H41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="42">
+        <v>19</v>
+      </c>
+      <c r="C42" s="21">
+        <v>4</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21">
+        <v>5</v>
+      </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42" s="19"/>
+      <c r="H42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
       <c r="K42" s="19"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="A43" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="42">
+        <v>20</v>
+      </c>
+      <c r="C43" s="21">
+        <v>4</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21">
+        <v>1</v>
+      </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-    </row>
-    <row r="44" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16">
-        <v>5</v>
+      <c r="H43" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="42">
+        <v>21</v>
+      </c>
+      <c r="C44" s="21">
+        <v>4</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21">
+        <v>8</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="18" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16">
-        <v>13</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="42">
+        <v>22</v>
+      </c>
+      <c r="C45" s="21">
+        <v>4</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21">
+        <v>8</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>102</v>
-      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
       <c r="K45" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+        <v>108</v>
+      </c>
+      <c r="B46" s="16">
+        <v>22</v>
+      </c>
+      <c r="C46" s="16">
+        <v>5</v>
+      </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="18" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>108</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="16">
-        <v>21</v>
-      </c>
+      <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>110</v>
-      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>111</v>
-      </c>
+    <row r="48" spans="1:11" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="16">
-        <v>13</v>
-      </c>
+      <c r="E48" s="16"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="19" t="s">
+      <c r="H48" s="18"/>
+      <c r="I48" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J48" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>114</v>
-      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
@@ -4786,70 +4863,128 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
+    <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="16">
+        <v>5</v>
+      </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
+      <c r="H50" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="E51" s="16">
+        <v>13</v>
+      </c>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
+      <c r="H51" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="E52" s="16">
+        <v>8</v>
+      </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
+      <c r="H52" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
+      <c r="E53" s="16">
+        <v>21</v>
+      </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
+      <c r="H53" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
+    <row r="54" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
+      <c r="E54" s="16">
+        <v>13</v>
+      </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="H54" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
@@ -4860,7 +4995,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="15"/>
+      <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
@@ -4873,7 +5008,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="15"/>
+      <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
@@ -4886,7 +5021,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="18"/>
-      <c r="I57" s="15"/>
+      <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
@@ -4899,7 +5034,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="15"/>
+      <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
@@ -4912,7 +5047,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="18"/>
-      <c r="I59" s="15"/>
+      <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
     </row>
@@ -4925,7 +5060,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="18"/>
-      <c r="I60" s="15"/>
+      <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
@@ -5371,6 +5506,84 @@
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
     </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="15"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="15"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="15"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="15"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B8:G8"/>
@@ -5383,11 +5596,11 @@
     <mergeCell ref="B7:G7"/>
   </mergeCells>
   <dataValidations count="13">
-    <dataValidation operator="equal" allowBlank="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation operator="equal" allowBlank="1" showErrorMessage="1" sqref="B1" xr:uid="{F440CC6C-1A58-4EA8-BA9C-3C4750AC247A}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name" prompt="Select any team name you prefer." sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Name" prompt="Select any team name you prefer." sqref="B2" xr:uid="{0116703B-B26F-46F0-9F9C-8A914D96FAF1}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5403,35 +5616,35 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Relative Priority" prompt="This is the priority ranking for this feature, relative to all other features._x000a__x000a_Lower integers are higher in prioirty._x000a__x000a_The customer may add or (for unimplemented features) remove features and change priority rankings at the start of each sprint." sqref="B24:B94" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H47:H100 H24:H36 H41:H45" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+      <formula1>"Customer,Sales Staff,Inventory,Manager,Director"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H37:H40 H46" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+      <formula1>"User,Client,Staff,Manager,Director"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Relative Priority" prompt="This is the priority ranking for this feature, relative to all other features._x000a__x000a_Lower integers are higher in prioirty._x000a__x000a_The customer may add or (for unimplemented features) remove features and change priority rankings at the start of each sprint." sqref="B24:B100" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Sprint" prompt="This is the sprint during which the grader will grade your implementation of this feature._x000a__x000a_By the END of this sprint, you must have implemented this feature._x000a__x000a_If this field is blank, then this is a bonus feature. If implemented, it will be graded after t" sqref="C24:C94" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Sprint" prompt="This is the sprint during which the grader will grade your implementation of this feature._x000a__x000a_By the END of this sprint, you must have implemented this feature._x000a__x000a_If this field is blank, then this is a bonus feature. If implemented, it will be graded after t" sqref="C24:C100" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Max Bonus Points" prompt="This is the MAXIMUM number of bonus points awarded if you successfully and completely implement this feature._x000a__x000a_If blank, this feature is REQUIRED. You MAY NOT work on ANY bonus feature until ALL required features have been implemented._x000a__x000a_If non-blank, some" sqref="D24:D94" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Max Bonus Points" prompt="This is the MAXIMUM number of bonus points awarded if you successfully and completely implement this feature._x000a__x000a_If blank, this feature is REQUIRED. You MAY NOT work on ANY bonus feature until ALL required features have been implemented._x000a__x000a_If non-blank, some" sqref="D24:D100" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimate" prompt="This is the professor's estimate as to the relative difficulty of this feature in &quot;points&quot;. _x000a__x000a_Points are unitless, and only have meaning relative to other estimates (a 2 point feature is expected to take about twice as long as a 1 point feature)._x000a__x000a_In a re" sqref="E24:E94" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Estimate" prompt="This is the professor's estimate as to the relative difficulty of this feature in &quot;points&quot;. _x000a__x000a_Points are unitless, and only have meaning relative to other estimates (a 2 point feature is expected to take about twice as long as a 1 point feature)._x000a__x000a_In a re" sqref="E24:E100" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"0,1,2,3,5,8,13,21,34,55,89"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Sprint" prompt="Select the sprint number (1, 2, etc.) in which you plan to implement this feature.  This is just for planning purposes, it won't affect your grade._x000a__x000a_In Scrum, you only plan the current sprint, not future sprints, so you don't need to fill this in for any " sqref="F24:F94" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Sprint" prompt="Select the sprint number (1, 2, etc.) in which you plan to implement this feature.  This is just for planning purposes, it won't affect your grade._x000a__x000a_In Scrum, you only plan the current sprint, not future sprints, so you don't need to fill this in for any " sqref="F24:F100" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"1,2,3,4"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H24:H32 H37:H39 H41:H94" xr:uid="{00000000-0002-0000-0000-00000A000000}">
-      <formula1>"Customer,Sales Staff,Inventory,Manager,Director"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H33:H36 H40" xr:uid="{00000000-0002-0000-0000-00000C000000}">
-      <formula1>"User,Client,Staff,Manager,Director"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank initially (hint: Use the Delete key)_x000a_Select &quot;In Work&quot; when you begin designing and coding this feature._x000a_Select &quot;In Test&quot; when this feature is fully coded and you are testing it._x000a_Select  Finished ONLY when the feature works well and is READY TO" sqref="G24:G94" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank initially (hint: Use the Delete key)_x000a_Select &quot;In Work&quot; when you begin designing and coding this feature._x000a_Select &quot;In Test&quot; when this feature is fully coded and you are testing it._x000a_Select  Finished ONLY when the feature works well and is READY TO" sqref="G25:G100" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"Not Started,In Work,In Test,Finished in Sprint 1,Finished in Sprint 2,Finished in Sprint 3,Finished in Sprint 4,Finished in Sprint 5,Finished in Sprint 6"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5450,8 +5663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5481,14 +5694,14 @@
     </row>
     <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B2" s="29">
         <v>44978</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="30" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="27"/>
@@ -5497,7 +5710,7 @@
     </row>
     <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B3" s="29">
         <f>B2+7</f>
@@ -5512,10 +5725,10 @@
     </row>
     <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -5540,7 +5753,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -5550,11 +5763,11 @@
     </row>
     <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5565,10 +5778,11 @@
     </row>
     <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B8" s="25">
-        <v>2</v>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
+        <v>1</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5582,11 +5796,11 @@
     </row>
     <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B9" s="25">
-        <f t="shared" ref="B9:B14" si="0">B8-C9</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5600,11 +5814,11 @@
     </row>
     <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5618,11 +5832,11 @@
     </row>
     <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5636,11 +5850,11 @@
     </row>
     <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5654,11 +5868,11 @@
     </row>
     <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5672,11 +5886,11 @@
     </row>
     <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5700,16 +5914,16 @@
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>25</v>
@@ -5722,29 +5936,21 @@
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>30</v>
-      </c>
+      <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>140</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>30</v>
-      </c>
+      <c r="B18" s="35"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="39" t="s">
-        <v>142</v>
-      </c>
+      <c r="D18" s="39"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
@@ -5752,13 +5958,9 @@
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="35"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="39" t="s">
-        <v>143</v>
-      </c>
+      <c r="D19" s="39"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
@@ -5766,13 +5968,9 @@
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="35"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="39" t="s">
-        <v>144</v>
-      </c>
+      <c r="D20" s="39"/>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
@@ -5780,48 +5978,30 @@
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>35</v>
-      </c>
+      <c r="B21" s="35"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>140</v>
-      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="B22" s="35"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>140</v>
-      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>147</v>
-      </c>
+      <c r="B23" s="35"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>140</v>
-      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6597,6 +6777,10 @@
   </sheetData>
   <dataValidations count="4">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D100" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6605,10 +6789,6 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OPTIONAL" prompt="You may add any notes here that help understand the requirements and scope for this task" sqref="F17:F100" xr:uid="{00000000-0002-0000-0100-000005000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D22:D100 D18:D20" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6623,15 +6803,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>'Product Backlog'!$A$24:$A$94</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'Product Backlog'!$H$5:$H$9</xm:f>
@@ -6640,6 +6811,15 @@
             <xm:f>0</xm:f>
           </x14:formula2>
           <xm:sqref>C17:C100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0100-000001000000}">
+          <x14:formula1>
+            <xm:f>'Product Backlog'!$A$24:$A$100</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B17:B100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6651,8 +6831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6683,7 +6863,7 @@
     </row>
     <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B2" s="29">
         <f>'Sprint 01 Backlog'!B3</f>
@@ -6691,7 +6871,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="30" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -6700,7 +6880,7 @@
     </row>
     <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B3" s="29">
         <f>B2+7</f>
@@ -6715,10 +6895,10 @@
     </row>
     <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -6743,7 +6923,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -6753,11 +6933,11 @@
     </row>
     <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6768,15 +6948,15 @@
     </row>
     <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -6786,11 +6966,11 @@
     </row>
     <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -6804,11 +6984,11 @@
     </row>
     <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -6822,11 +7002,11 @@
     </row>
     <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -6840,11 +7020,11 @@
     </row>
     <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -6858,11 +7038,11 @@
     </row>
     <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6876,11 +7056,11 @@
     </row>
     <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6904,16 +7084,16 @@
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>25</v>
@@ -6929,12 +7109,14 @@
       <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" s="36" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F17" s="38"/>
     </row>
@@ -6945,12 +7127,14 @@
       <c r="B18" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="D18" s="39" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -6959,14 +7143,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="D19" s="39" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F19" s="38"/>
     </row>
@@ -6975,14 +7161,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="D20" s="39" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F20" s="38"/>
     </row>
@@ -6993,29 +7181,49 @@
       <c r="B21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37"/>
+      <c r="C21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -7828,7 +8036,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
-            <xm:f>'Product Backlog'!$A$24:$A$94</xm:f>
+            <xm:f>'Product Backlog'!$A$24:$A$100</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -7877,7 +8085,7 @@
     </row>
     <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B2" s="29">
         <f>'Sprint 02 Backlog'!B2+7</f>
@@ -7885,7 +8093,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="30" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -7894,7 +8102,7 @@
     </row>
     <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B3" s="29">
         <f>B2+14</f>
@@ -7909,10 +8117,10 @@
     </row>
     <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -7937,7 +8145,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -7947,7 +8155,7 @@
     </row>
     <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
@@ -7962,7 +8170,7 @@
     </row>
     <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -7980,7 +8188,7 @@
     </row>
     <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
@@ -7998,7 +8206,7 @@
     </row>
     <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
@@ -8016,7 +8224,7 @@
     </row>
     <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
@@ -8034,7 +8242,7 @@
     </row>
     <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
@@ -8052,7 +8260,7 @@
     </row>
     <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
@@ -8070,7 +8278,7 @@
     </row>
     <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
@@ -8098,16 +8306,16 @@
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>25</v>
@@ -8123,7 +8331,7 @@
       <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
@@ -8987,15 +9195,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0300-000001000000}">
-          <x14:formula1>
-            <xm:f>'Product Backlog'!$A$24:$A$94</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>'Product Backlog'!$H$5:$H$9</xm:f>
@@ -9004,6 +9203,15 @@
             <xm:f>0</xm:f>
           </x14:formula2>
           <xm:sqref>C17:C100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0300-000001000000}">
+          <x14:formula1>
+            <xm:f>'Product Backlog'!$A$24:$A$100</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B17:B100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9047,14 +9255,14 @@
     </row>
     <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B2" s="29">
         <v>45027</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="30" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -9063,7 +9271,7 @@
     </row>
     <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B3" s="29">
         <f>B2+7</f>
@@ -9078,10 +9286,10 @@
     </row>
     <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -9106,7 +9314,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -9116,7 +9324,7 @@
     </row>
     <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
@@ -9131,7 +9339,7 @@
     </row>
     <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -9149,7 +9357,7 @@
     </row>
     <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
@@ -9167,7 +9375,7 @@
     </row>
     <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
@@ -9185,7 +9393,7 @@
     </row>
     <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
@@ -9203,7 +9411,7 @@
     </row>
     <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
@@ -9221,7 +9429,7 @@
     </row>
     <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
@@ -9239,7 +9447,7 @@
     </row>
     <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
@@ -9267,16 +9475,16 @@
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>25</v>
@@ -9292,7 +9500,7 @@
       <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
@@ -10156,15 +10364,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0400-000001000000}">
-          <x14:formula1>
-            <xm:f>'Product Backlog'!$A$24:$A$94</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
             <xm:f>'Product Backlog'!$H$5:$H$9</xm:f>
@@ -10173,6 +10372,15 @@
             <xm:f>0</xm:f>
           </x14:formula2>
           <xm:sqref>C17:C100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0400-000001000000}">
+          <x14:formula1>
+            <xm:f>'Product Backlog'!$A$24:$A$100</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B17:B100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10216,7 +10424,7 @@
     </row>
     <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B2" s="29">
         <f>'Sprint 04 Backlog'!B3</f>
@@ -10224,7 +10432,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="30" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -10233,7 +10441,7 @@
     </row>
     <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B3" s="29">
         <f>B2+7</f>
@@ -10248,10 +10456,10 @@
     </row>
     <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -10276,7 +10484,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -10286,7 +10494,7 @@
     </row>
     <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
@@ -10301,7 +10509,7 @@
     </row>
     <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -10319,7 +10527,7 @@
     </row>
     <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
@@ -10337,7 +10545,7 @@
     </row>
     <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
@@ -10355,7 +10563,7 @@
     </row>
     <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
@@ -10373,7 +10581,7 @@
     </row>
     <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
@@ -10391,7 +10599,7 @@
     </row>
     <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
@@ -10409,7 +10617,7 @@
     </row>
     <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
@@ -10437,16 +10645,16 @@
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>25</v>
@@ -10462,7 +10670,7 @@
       <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
@@ -11326,15 +11534,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0500-000001000000}">
-          <x14:formula1>
-            <xm:f>'Product Backlog'!$A$24:$A$94</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
             <xm:f>'Product Backlog'!$H$5:$H$9</xm:f>
@@ -11343,6 +11542,15 @@
             <xm:f>0</xm:f>
           </x14:formula2>
           <xm:sqref>C17:C100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0500-000001000000}">
+          <x14:formula1>
+            <xm:f>'Product Backlog'!$A$24:$A$100</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B17:B100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11376,7 +11584,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>1</v>
@@ -11388,7 +11596,7 @@
     </row>
     <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B2" s="29">
         <f>'Sprint 05 Backlog'!B3</f>
@@ -11396,7 +11604,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="30" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -11405,7 +11613,7 @@
     </row>
     <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B3" s="29">
         <f>B2+7</f>
@@ -11420,10 +11628,10 @@
     </row>
     <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -11448,7 +11656,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -11458,7 +11666,7 @@
     </row>
     <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
@@ -11473,7 +11681,7 @@
     </row>
     <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -11491,7 +11699,7 @@
     </row>
     <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
@@ -11509,7 +11717,7 @@
     </row>
     <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
@@ -11527,7 +11735,7 @@
     </row>
     <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
@@ -11545,7 +11753,7 @@
     </row>
     <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
@@ -11563,7 +11771,7 @@
     </row>
     <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
@@ -11581,7 +11789,7 @@
     </row>
     <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
@@ -11602,7 +11810,7 @@
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="40" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
@@ -11611,16 +11819,16 @@
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>25</v>
@@ -11636,7 +11844,7 @@
       <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
@@ -12500,15 +12708,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0600-000001000000}">
-          <x14:formula1>
-            <xm:f>'Product Backlog'!$A$24:$A$94</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " xr:uid="{00000000-0002-0000-0600-000002000000}">
           <x14:formula1>
             <xm:f>'Product Backlog'!$H$5:$H$9</xm:f>
@@ -12518,6 +12717,15 @@
           </x14:formula2>
           <xm:sqref>C17:C100</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="The list contains the Feature IDs from the same column on the Product Backlog tab._x000a__x000a_For each (ahem) Feature ID, create one or more rows in this table representing the tasks you need to complete to implement that feature._x000a__x000a_For example, for a &quot;Provide Help " xr:uid="{00000000-0002-0000-0600-000001000000}">
+          <x14:formula1>
+            <xm:f>'Product Backlog'!$A$24:$A$100</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B17:B100</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
